--- a/data_output/prism_passive/all_passive_out_strain_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.9752196494062826</v>
+        <v>7.9752196690452122</v>
       </c>
       <c r="C2">
-        <v>0.79601226921237001</v>
+        <v>0.79601227827261023</v>
       </c>
       <c r="D2">
-        <v>14.501430569154728</v>
+        <v>14.501430591133694</v>
       </c>
       <c r="E2">
-        <v>-2.7511907178611145E-2</v>
+        <v>-2.7511891849207427E-2</v>
       </c>
       <c r="F2">
-        <v>25.164484874043836</v>
+        <v>25.164484886322136</v>
       </c>
       <c r="G2">
-        <v>5.7613579352460063</v>
+        <v>5.7613579476729893</v>
       </c>
       <c r="H2">
-        <v>-3.0276116643251609</v>
+        <v>-3.0276116536749202</v>
       </c>
       <c r="I2">
-        <v>4.9656364226484211</v>
+        <v>4.9656364368997208</v>
       </c>
       <c r="J2">
-        <v>3.1871124298913971</v>
+        <v>3.1871124407351861</v>
       </c>
       <c r="K2">
-        <v>-6.9795700222459303</v>
+        <v>-6.9795700123441478</v>
       </c>
       <c r="L2">
-        <v>2.5851317202175643</v>
+        <v>2.5851317335112429</v>
       </c>
       <c r="M2">
-        <v>2.8559419364797267</v>
+        <v>2.8559419629950207</v>
       </c>
       <c r="N2">
-        <v>-7.7135792550545659E-2</v>
+        <v>-7.7135775439088616E-2</v>
       </c>
       <c r="O2">
-        <v>4.9842515284697209</v>
+        <v>4.9842515443441098</v>
       </c>
       <c r="P2">
-        <v>5.6333201130385744</v>
+        <v>5.6333201356750502</v>
       </c>
       <c r="Q2">
-        <v>0.82180749479005499</v>
+        <v>0.82180751273093189</v>
       </c>
       <c r="R2">
-        <v>0.90997832077819207</v>
+        <v>0.90997833437160625</v>
       </c>
       <c r="S2">
-        <v>7.048178394266265</v>
+        <v>7.0481783862450254</v>
       </c>
       <c r="T2">
-        <v>-3.7921208664438009</v>
+        <v>-3.7921208419205534</v>
       </c>
       <c r="U2">
-        <v>-3.23378983592491</v>
+        <v>-3.2337898239683462</v>
       </c>
       <c r="V2">
-        <v>-2.9812026266343659</v>
+        <v>-2.981202616945819</v>
       </c>
       <c r="W2">
-        <v>5.6798477763468238</v>
+        <v>5.67984778748301</v>
       </c>
       <c r="X2">
-        <v>-3.3049121302432982</v>
+        <v>-3.3049121047139396</v>
       </c>
       <c r="Y2">
-        <v>-4.4805183183951538</v>
+        <v>-4.4805183020304815</v>
       </c>
       <c r="Z2">
-        <v>0.24761847345117477</v>
+        <v>0.24761848740961784</v>
       </c>
       <c r="AA2">
-        <v>0.61949863533884864</v>
+        <v>0.61949865381608116</v>
       </c>
       <c r="AB2">
-        <v>0.60078466147497678</v>
+        <v>0.60078468190557288</v>
       </c>
       <c r="AC2">
-        <v>3.6473762265301808</v>
+        <v>3.6473762399853635</v>
       </c>
       <c r="AD2">
-        <v>3.4992472893612701E-2</v>
+        <v>3.4992490196190079E-2</v>
       </c>
       <c r="AE2">
-        <v>-6.0125953604490192</v>
+        <v>-6.0125953525937472</v>
       </c>
       <c r="AF2">
-        <v>-0.29202023862619814</v>
+        <v>-0.29202022085482149</v>
       </c>
       <c r="AG2">
-        <v>-0.1971383828798102</v>
+        <v>-0.19713836946321728</v>
       </c>
       <c r="AH2">
-        <v>1.4410326151798685</v>
+        <v>1.4410326395078026</v>
       </c>
       <c r="AI2">
-        <v>18.984016383144436</v>
+        <v>18.98401640359544</v>
       </c>
       <c r="AJ2">
-        <v>1.1341646718705236</v>
+        <v>1.1341646843475</v>
       </c>
       <c r="AK2">
-        <v>1.3324890171079105</v>
+        <v>1.3324890299678724</v>
       </c>
       <c r="AL2">
-        <v>-5.1587244599933149</v>
+        <v>-5.1587244442560944</v>
       </c>
       <c r="AM2">
-        <v>0.12419686350566311</v>
+        <v>0.12419687813427728</v>
       </c>
       <c r="AN2">
-        <v>0.68552527680248687</v>
+        <v>0.68552529308068499</v>
       </c>
       <c r="AO2">
-        <v>-2.4466953896193018</v>
+        <v>-2.4466953676471759</v>
       </c>
       <c r="AP2">
-        <v>0.71704980007517727</v>
+        <v>0.71704981336986862</v>
       </c>
       <c r="AQ2">
-        <v>0.10245381374223207</v>
+        <v>0.10245382994170703</v>
       </c>
       <c r="AR2">
-        <v>1.886692589407631</v>
+        <v>1.8866925973627262</v>
       </c>
       <c r="AS2">
-        <v>-2.9674913493531947</v>
+        <v>-2.9674913378062318</v>
       </c>
       <c r="AT2">
-        <v>-2.7349957415301098</v>
+        <v>-2.7349957220557157</v>
       </c>
       <c r="AU2">
-        <v>-1.3497124405877243</v>
+        <v>-1.3497124275877352</v>
       </c>
       <c r="AV2">
-        <v>0.89484215476294693</v>
+        <v>0.89484216814150108</v>
       </c>
       <c r="AW2">
-        <v>-2.2700689086888994</v>
+        <v>-2.270068890614517</v>
       </c>
       <c r="AX2">
-        <v>-2.9262733402080228</v>
+        <v>-2.9262733250933528</v>
       </c>
       <c r="AY2">
-        <v>-1.934404071438951</v>
+        <v>-1.9344040584188569</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.3739999964904888</v>
+        <v>6.3740000121586817</v>
       </c>
       <c r="C3">
-        <v>0.58044697917463639</v>
+        <v>0.58044699287077262</v>
       </c>
       <c r="D3">
-        <v>-4.4166816097573802</v>
+        <v>-4.4166815900999623</v>
       </c>
       <c r="E3">
-        <v>-4.6907980439218084</v>
+        <v>-4.6907980059248358</v>
       </c>
       <c r="F3">
-        <v>9.6682250523960072</v>
+        <v>9.6682250630227244</v>
       </c>
       <c r="G3">
-        <v>-0.92597004770024816</v>
+        <v>-0.92597004056725241</v>
       </c>
       <c r="H3">
-        <v>1.9430233271518689</v>
+        <v>1.9430233497569318</v>
       </c>
       <c r="I3">
-        <v>1.1647905747225786</v>
+        <v>1.1647905879689453</v>
       </c>
       <c r="J3">
-        <v>0.47986625663275645</v>
+        <v>0.47986627473313231</v>
       </c>
       <c r="K3">
-        <v>10.734699757703178</v>
+        <v>10.734699769211156</v>
       </c>
       <c r="L3">
-        <v>-1.5362873251311748</v>
+        <v>-1.5362873135321309</v>
       </c>
       <c r="M3">
-        <v>2.101792553143115</v>
+        <v>2.1016473305854348</v>
       </c>
       <c r="N3">
-        <v>0.49285799773829936</v>
+        <v>0.49285801241098076</v>
       </c>
       <c r="O3">
-        <v>4.1911312525839062</v>
+        <v>4.1911312703011223</v>
       </c>
       <c r="P3">
-        <v>-15.302988313374311</v>
+        <v>-15.302988298522868</v>
       </c>
       <c r="Q3">
-        <v>0.55514376426870848</v>
+        <v>0.55514378423584576</v>
       </c>
       <c r="R3">
-        <v>5.890558429815786</v>
+        <v>5.8905584552791135</v>
       </c>
       <c r="S3">
-        <v>7.6910534484964472</v>
+        <v>7.6910534618647244</v>
       </c>
       <c r="T3">
-        <v>6.0084886140446061</v>
+        <v>6.0084886240621707</v>
       </c>
       <c r="U3">
-        <v>-1.959750227226901</v>
+        <v>-1.9597502143506462</v>
       </c>
       <c r="V3">
-        <v>-4.1064148382760939</v>
+        <v>-4.1064148279852963</v>
       </c>
       <c r="W3">
-        <v>0.2250606124880484</v>
+        <v>0.22506063330551837</v>
       </c>
       <c r="X3">
-        <v>9.3113712194884357</v>
+        <v>9.3113712380104214</v>
       </c>
       <c r="Y3">
-        <v>5.2436117105874018</v>
+        <v>5.2436117242074962</v>
       </c>
       <c r="Z3">
-        <v>-2.90378285766672</v>
+        <v>-2.9037828402113486</v>
       </c>
       <c r="AA3">
-        <v>-1.2121552537684688</v>
+        <v>-1.2121552303591929</v>
       </c>
       <c r="AB3">
-        <v>0.79234349866414089</v>
+        <v>0.79234350747501692</v>
       </c>
       <c r="AC3">
-        <v>-0.76861648672791305</v>
+        <v>-0.76861647388388565</v>
       </c>
       <c r="AD3">
-        <v>-2.1103024338684282</v>
+        <v>-2.1103024233629855</v>
       </c>
       <c r="AE3">
-        <v>-4.0874741797432081</v>
+        <v>-4.0874741673084758</v>
       </c>
       <c r="AF3">
-        <v>-0.19540587693297201</v>
+        <v>-0.19540586291223977</v>
       </c>
       <c r="AG3">
-        <v>0.25222231800195954</v>
+        <v>0.25222232770798209</v>
       </c>
       <c r="AH3">
-        <v>-1.272007820906812</v>
+        <v>-1.2720078028382</v>
       </c>
       <c r="AI3">
-        <v>0.9456797962508845</v>
+        <v>0.94567980174669297</v>
       </c>
       <c r="AJ3">
-        <v>-3.3529359156009026</v>
+        <v>-3.3529359067567017</v>
       </c>
       <c r="AK3">
-        <v>1.4313819181037828</v>
+        <v>1.4313819307794877</v>
       </c>
       <c r="AL3">
-        <v>-4.3635932422254342</v>
+        <v>-4.3635932204425218</v>
       </c>
       <c r="AM3">
-        <v>0.34272988811160099</v>
+        <v>0.34272990179881979</v>
       </c>
       <c r="AN3">
-        <v>5.3759855456730001</v>
+        <v>5.3759855630630335</v>
       </c>
       <c r="AO3">
-        <v>9.606349951332497</v>
+        <v>9.6063499645411685</v>
       </c>
       <c r="AP3">
-        <v>-4.8389180030491268</v>
+        <v>-4.8389179897218408</v>
       </c>
       <c r="AQ3">
-        <v>-1.9693975617323107</v>
+        <v>-1.9693975419483434</v>
       </c>
       <c r="AR3">
-        <v>9.2114436291133389E-2</v>
+        <v>9.2114447899468266E-2</v>
       </c>
       <c r="AS3">
-        <v>3.87541059646321</v>
+        <v>3.8754106111991762</v>
       </c>
       <c r="AT3">
-        <v>-0.49006754712800171</v>
+        <v>-0.49006752859778291</v>
       </c>
       <c r="AU3">
-        <v>-3.0540285949445876</v>
+        <v>-3.0540285868844594</v>
       </c>
       <c r="AV3">
-        <v>-2.5705517130505631</v>
+        <v>-2.5705516994160611</v>
       </c>
       <c r="AW3">
-        <v>-2.3250767148718086</v>
+        <v>-2.3250767006699888</v>
       </c>
       <c r="AX3">
-        <v>-17.862284195706867</v>
+        <v>-17.862284182168509</v>
       </c>
       <c r="AY3">
-        <v>-9.7776956869774185</v>
+        <v>-9.7776956702981028</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>7.9752196690452122</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.79601227827261023</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.501430591133694</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-2.7511891849207427E-2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>25.164484886322136</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.7613579476729893</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-3.0276116536749202</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.9656364368997208</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.1871124407351861</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-6.9795700123441478</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.5851317335112429</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.8559419629950207</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-7.7135775439088616E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.9842515443441098</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.6333201356750502</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.82180751273093189</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.90997833437160625</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.0481783862450254</v>
+        <v>7.0481980890528133</v>
       </c>
       <c r="T2">
-        <v>-3.7921208419205534</v>
+        <v>-3.7921054711035218</v>
       </c>
       <c r="U2">
-        <v>-3.2337898239683462</v>
+        <v>-3.2337708316170706</v>
       </c>
       <c r="V2">
-        <v>-2.981202616945819</v>
+        <v>-2.9811866591403144</v>
       </c>
       <c r="W2">
-        <v>5.67984778748301</v>
+        <v>5.6798644795736406</v>
       </c>
       <c r="X2">
-        <v>-3.3049121047139396</v>
+        <v>-3.3049318436830331</v>
       </c>
       <c r="Y2">
-        <v>-4.4805183020304815</v>
+        <v>-4.4805353549389544</v>
       </c>
       <c r="Z2">
-        <v>0.24761848740961784</v>
+        <v>0.24759791867923978</v>
       </c>
       <c r="AA2">
-        <v>0.61949865381608116</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.60078468190557288</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>3.6473762399853635</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>3.4992490196190079E-2</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-6.0125953525937472</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-0.29202022085482149</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.19713836946321728</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.4410326395078026</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>18.98401640359544</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.1341646843475</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.3324890299678724</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-5.1587244442560944</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.12419687813427728</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.68552529308068499</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-2.4466953676471759</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.71704981336986862</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.10245382994170703</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.8866925973627262</v>
+        <v>1.8867109013808276</v>
       </c>
       <c r="AS2">
-        <v>-2.9674913378062318</v>
+        <v>-2.9674758900368192</v>
       </c>
       <c r="AT2">
         <v>-2.7349957220557157</v>
       </c>
       <c r="AU2">
-        <v>-1.3497124275877352</v>
+        <v>-1.3496962078356074</v>
       </c>
       <c r="AV2">
         <v>0.89484216814150108</v>
       </c>
       <c r="AW2">
-        <v>-2.270068890614517</v>
+        <v>-2.2700894723786949</v>
       </c>
       <c r="AX2">
-        <v>-2.9262733250933528</v>
+        <v>-2.9262901367912959</v>
       </c>
       <c r="AY2">
         <v>-1.9344040584188569</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>6.3740000121586817</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.58044699287077262</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-4.4166815900999623</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-4.6907980059248358</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9.6682250630227244</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>-0.92597004056725241</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.9430233497569318</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.1647905879689453</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.47986627473313231</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>10.734699769211156</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.5362873135321309</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.1016473305854348</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.49285801241098076</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.1911312703011223</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-15.302988298522868</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.55514378423584576</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.8905584552791135</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>7.6910534618647244</v>
       </c>
       <c r="T3">
-        <v>6.0084886240621707</v>
+        <v>6.0085053490393392</v>
       </c>
       <c r="U3">
-        <v>-1.9597502143506462</v>
+        <v>-1.9597309810037526</v>
       </c>
       <c r="V3">
-        <v>-4.1064148279852963</v>
+        <v>-4.1064003012076657</v>
       </c>
       <c r="W3">
-        <v>0.22506063330551837</v>
+        <v>0.22507801756456902</v>
       </c>
       <c r="X3">
-        <v>9.3113712380104214</v>
+        <v>9.3113956348855194</v>
       </c>
       <c r="Y3">
-        <v>5.2436117242074962</v>
+        <v>5.2435906227261846</v>
       </c>
       <c r="Z3">
-        <v>-2.9037828402113486</v>
+        <v>-2.9038016868370353</v>
       </c>
       <c r="AA3">
-        <v>-1.2121552303591929</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.79234350747501692</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-0.76861647388388565</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-2.1103024233629855</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-4.0874741673084758</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>-0.19540586291223977</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.25222232770798209</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-1.2720078028382</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.94567980174669297</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-3.3529359067567017</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.4313819307794877</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-4.3635932204425218</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.34272990179881979</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.3759855630630335</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>9.6063499645411685</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-4.8389179897218408</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-1.9693975419483434</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>9.2114447899468266E-2</v>
+        <v>9.2132903017516032E-2</v>
       </c>
       <c r="AS3">
         <v>3.8754106111991762</v>
       </c>
       <c r="AT3">
-        <v>-0.49006752859778291</v>
+        <v>-0.49004759990416413</v>
       </c>
       <c r="AU3">
-        <v>-3.0540285868844594</v>
+        <v>-3.054013997495534</v>
       </c>
       <c r="AV3">
-        <v>-2.5705516994160611</v>
+        <v>-2.5705680939678062</v>
       </c>
       <c r="AW3">
-        <v>-2.3250767006699888</v>
+        <v>-2.3250565073161531</v>
       </c>
       <c r="AX3">
-        <v>-17.862284182168509</v>
+        <v>-17.862299004045394</v>
       </c>
       <c r="AY3">
         <v>-9.7776956702981028</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.9752418688798681</v>
+        <v>4.9842303083526174</v>
       </c>
       <c r="C2">
-        <v>-7.5496379041150946E-2</v>
+        <v>0.90999355879820343</v>
       </c>
       <c r="D2">
-        <v>14.501430569154728</v>
+        <v>0.68550585053288438</v>
       </c>
       <c r="E2">
-        <v>-3.3254210427423136</v>
+        <v>0.10245382994170703</v>
       </c>
       <c r="F2">
         <v>25.164511193014317</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.3739999964904888</v>
+        <v>4.1911312703011223</v>
       </c>
       <c r="C3">
-        <v>-3.3040627861272798</v>
+        <v>5.8905749469724293</v>
       </c>
       <c r="D3">
-        <v>-4.4166602395988495</v>
+        <v>5.3759646401996122</v>
       </c>
       <c r="E3">
-        <v>-4.690783852074917</v>
+        <v>-1.9344935784110526</v>
       </c>
       <c r="F3">
         <v>9.6682033122575728</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.9752418688798681</v>
+        <v>18.120275670679284</v>
       </c>
       <c r="C2">
-        <v>-7.5496379041150946E-2</v>
+        <v>4.9842303083526174</v>
       </c>
       <c r="D2">
-        <v>14.501430569154728</v>
+        <v>4.2774990998336033</v>
       </c>
       <c r="E2">
-        <v>-3.3254210427423136</v>
+        <v>0.68550585053288438</v>
       </c>
       <c r="F2">
         <v>25.164511193014317</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.3739999964904888</v>
+        <v>31.578220604750829</v>
       </c>
       <c r="C3">
-        <v>-3.3040627861272798</v>
+        <v>4.1911312703011223</v>
       </c>
       <c r="D3">
-        <v>-4.4166602395988495</v>
+        <v>-5.755704824788956</v>
       </c>
       <c r="E3">
-        <v>-4.690783852074917</v>
+        <v>5.3759646401996122</v>
       </c>
       <c r="F3">
         <v>9.6682033122575728</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>7.9752418885188012</v>
+      </c>
+      <c r="C2">
+        <v>-7.5496370059247905E-2</v>
+      </c>
+      <c r="D2">
+        <v>14.501430591133694</v>
+      </c>
+      <c r="E2">
+        <v>-3.3254210279185985</v>
+      </c>
+      <c r="F2">
+        <v>25.164511205292627</v>
+      </c>
+      <c r="G2">
+        <v>5.7613781754430242</v>
+      </c>
+      <c r="H2">
+        <v>-3.0276289012986441</v>
+      </c>
+      <c r="I2">
+        <v>4.9656566050664956</v>
+      </c>
+      <c r="J2">
+        <v>3.1870911232158328</v>
+      </c>
+      <c r="K2">
+        <v>-6.9795872968026282</v>
+      </c>
+      <c r="L2">
+        <v>2.5851504946908239</v>
+      </c>
+      <c r="M2">
+        <v>2.8559218802674216</v>
+      </c>
+      <c r="N2">
         <v>18.120275670679284</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>4.9842303083526174</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>5.6333201356750502</v>
+      </c>
+      <c r="Q2">
+        <v>-13.765168579103365</v>
+      </c>
+      <c r="R2">
+        <v>0.90999355879820343</v>
+      </c>
+      <c r="S2">
+        <v>7.0481980890528133</v>
+      </c>
+      <c r="T2">
+        <v>-3.7921054711035218</v>
+      </c>
+      <c r="U2">
+        <v>-3.2337708316170706</v>
+      </c>
+      <c r="V2">
+        <v>-2.9811866591403144</v>
+      </c>
+      <c r="W2">
+        <v>5.6798644795736406</v>
+      </c>
+      <c r="X2">
+        <v>-3.3049318436830331</v>
+      </c>
+      <c r="Y2">
+        <v>-4.4805353549389544</v>
+      </c>
+      <c r="Z2">
+        <v>0.24759791867923978</v>
+      </c>
+      <c r="AA2">
+        <v>0.61947869677390355</v>
+      </c>
+      <c r="AB2">
+        <v>21.697305525724477</v>
+      </c>
+      <c r="AC2">
+        <v>3.6473525059562695</v>
+      </c>
+      <c r="AD2">
+        <v>4.1808375348982549</v>
+      </c>
+      <c r="AE2">
+        <v>-6.0125953525937472</v>
+      </c>
+      <c r="AF2">
+        <v>-0.2920012444931398</v>
+      </c>
+      <c r="AG2">
+        <v>-0.19713836946321728</v>
+      </c>
+      <c r="AH2">
+        <v>1.4410517352565382</v>
+      </c>
+      <c r="AI2">
+        <v>18.984041596209085</v>
+      </c>
+      <c r="AJ2">
+        <v>1.1341454009525975</v>
+      </c>
+      <c r="AK2">
+        <v>1.3324704781962815</v>
+      </c>
+      <c r="AL2">
+        <v>-5.1587244442560944</v>
+      </c>
+      <c r="AM2">
         <v>4.2774990998336033</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>0.68550585053288438</v>
       </c>
-      <c r="F2">
-        <v>25.164511193014317</v>
-      </c>
-      <c r="G2">
-        <v>5.7613781630160394</v>
-      </c>
-      <c r="H2">
-        <v>-3.0276289119488831</v>
-      </c>
-      <c r="I2">
-        <v>4.9656565908151933</v>
-      </c>
-      <c r="J2">
-        <v>3.1870911123720465</v>
-      </c>
-      <c r="K2">
-        <v>-6.9795873067044072</v>
-      </c>
-      <c r="L2">
-        <v>2.5851504813971431</v>
-      </c>
-      <c r="M2">
-        <v>2.8559218537521325</v>
-      </c>
-      <c r="N2">
-        <v>18.120275650451582</v>
-      </c>
-      <c r="O2">
-        <v>4.9842302924782311</v>
-      </c>
-      <c r="P2">
-        <v>5.6333201130385744</v>
-      </c>
-      <c r="Q2">
-        <v>-13.765168594448543</v>
-      </c>
-      <c r="R2">
-        <v>0.90999354520478715</v>
-      </c>
-      <c r="S2">
-        <v>7.0481980970740548</v>
-      </c>
-      <c r="T2">
-        <v>-3.7921054956267728</v>
-      </c>
-      <c r="U2">
-        <v>-3.2337708435736365</v>
-      </c>
-      <c r="V2">
-        <v>-2.9811866688288626</v>
-      </c>
-      <c r="W2">
-        <v>5.6798644684374535</v>
-      </c>
-      <c r="X2">
-        <v>-3.3049318692123859</v>
-      </c>
-      <c r="Y2">
-        <v>-4.480535371303624</v>
-      </c>
-      <c r="Z2">
-        <v>0.24759790472079954</v>
-      </c>
-      <c r="AA2">
-        <v>0.6194786782966748</v>
-      </c>
-      <c r="AB2">
-        <v>21.697305501009474</v>
-      </c>
-      <c r="AC2">
-        <v>3.6473524925010903</v>
-      </c>
-      <c r="AD2">
-        <v>4.1808375168785901</v>
-      </c>
-      <c r="AE2">
-        <v>-6.0125953604490192</v>
-      </c>
-      <c r="AF2">
-        <v>-0.29200126226451989</v>
-      </c>
-      <c r="AG2">
-        <v>-0.1971383828798102</v>
-      </c>
-      <c r="AH2">
-        <v>1.4410517109285994</v>
-      </c>
-      <c r="AI2">
-        <v>18.984041575758074</v>
-      </c>
-      <c r="AJ2">
-        <v>1.1341453884756236</v>
-      </c>
-      <c r="AK2">
-        <v>1.332470465336322</v>
-      </c>
-      <c r="AL2">
-        <v>-5.1587244599933149</v>
-      </c>
-      <c r="AM2">
-        <v>4.2774990845981717</v>
-      </c>
-      <c r="AN2">
-        <v>0.68550583425468936</v>
-      </c>
       <c r="AO2">
-        <v>-2.4466953896193018</v>
+        <v>-2.4466953676471759</v>
       </c>
       <c r="AP2">
-        <v>0.51074672737042248</v>
+        <v>0.51074674410222443</v>
       </c>
       <c r="AQ2">
-        <v>0.10245381374223207</v>
+        <v>0.10245382994170703</v>
       </c>
       <c r="AR2">
-        <v>1.8867108934257315</v>
+        <v>1.8867109013808276</v>
       </c>
       <c r="AS2">
-        <v>-2.9674759015837839</v>
+        <v>-2.9674758900368192</v>
       </c>
       <c r="AT2">
-        <v>-2.7349957415301098</v>
+        <v>-2.7349957220557157</v>
       </c>
       <c r="AU2">
-        <v>-1.3496962208355987</v>
+        <v>-1.3496962078356074</v>
       </c>
       <c r="AV2">
-        <v>0.89484215476294693</v>
+        <v>0.89484216814150108</v>
       </c>
       <c r="AW2">
-        <v>-2.2700894904530742</v>
+        <v>-2.2700894723786949</v>
       </c>
       <c r="AX2">
-        <v>-2.9262901519059632</v>
+        <v>-2.9262901367912959</v>
       </c>
       <c r="AY2">
-        <v>-1.934404071438951</v>
+        <v>-1.9344040584188569</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>6.3740000121586817</v>
+      </c>
+      <c r="C3">
+        <v>-3.3040627729601009</v>
+      </c>
+      <c r="D3">
+        <v>-4.4166602199414271</v>
+      </c>
+      <c r="E3">
+        <v>-4.690783814077939</v>
+      </c>
+      <c r="F3">
+        <v>9.6682033228842883</v>
+      </c>
+      <c r="G3">
+        <v>-0.92595144291343723</v>
+      </c>
+      <c r="H3">
+        <v>1.9430045144657186</v>
+      </c>
+      <c r="I3">
+        <v>1.1647712033658879</v>
+      </c>
+      <c r="J3">
+        <v>-0.84527472476192544</v>
+      </c>
+      <c r="K3">
+        <v>10.734699769211156</v>
+      </c>
+      <c r="L3">
+        <v>-1.5363053937220783</v>
+      </c>
+      <c r="M3">
+        <v>2.1016473305854348</v>
+      </c>
+      <c r="N3">
         <v>31.578220604750829</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>4.1911312703011223</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-15.302975054349528</v>
+      </c>
+      <c r="Q3">
+        <v>0.55512570351362278</v>
+      </c>
+      <c r="R3">
+        <v>5.8905749469724293</v>
+      </c>
+      <c r="S3">
+        <v>7.6910534618647244</v>
+      </c>
+      <c r="T3">
+        <v>6.0085053490393392</v>
+      </c>
+      <c r="U3">
+        <v>-1.9597309810037526</v>
+      </c>
+      <c r="V3">
+        <v>-4.1064003012076657</v>
+      </c>
+      <c r="W3">
+        <v>0.22258252967982864</v>
+      </c>
+      <c r="X3">
+        <v>9.3113956348855194</v>
+      </c>
+      <c r="Y3">
+        <v>5.2435906227261846</v>
+      </c>
+      <c r="Z3">
+        <v>-2.9038016868370353</v>
+      </c>
+      <c r="AA3">
+        <v>-1.2121349715368444</v>
+      </c>
+      <c r="AB3">
+        <v>2.3307561197931697</v>
+      </c>
+      <c r="AC3">
+        <v>-0.76864006714518962</v>
+      </c>
+      <c r="AD3">
+        <v>-2.1103024233629855</v>
+      </c>
+      <c r="AE3">
+        <v>-4.0874565617177216</v>
+      </c>
+      <c r="AF3">
+        <v>-0.1953867139889548</v>
+      </c>
+      <c r="AG3">
+        <v>0.25222232770798209</v>
+      </c>
+      <c r="AH3">
+        <v>-1.2035944713607047</v>
+      </c>
+      <c r="AI3">
+        <v>-3.5465729278707406E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>-3.3529182315547033</v>
+      </c>
+      <c r="AK3">
+        <v>1.4313628397227853</v>
+      </c>
+      <c r="AL3">
+        <v>-4.3635932204425218</v>
+      </c>
+      <c r="AM3">
         <v>-5.755704824788956</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>5.3759646401996122</v>
       </c>
-      <c r="F3">
-        <v>9.6682033122575728</v>
-      </c>
-      <c r="G3">
-        <v>-0.9259514500464342</v>
-      </c>
-      <c r="H3">
-        <v>1.9430044918606597</v>
-      </c>
-      <c r="I3">
-        <v>1.1647711901195239</v>
-      </c>
-      <c r="J3">
-        <v>-0.84527474262359148</v>
-      </c>
-      <c r="K3">
-        <v>10.734699757703178</v>
-      </c>
-      <c r="L3">
-        <v>-1.5363054053211203</v>
-      </c>
-      <c r="M3">
-        <v>2.101792553143115</v>
-      </c>
-      <c r="N3">
-        <v>31.578220585539459</v>
-      </c>
-      <c r="O3">
-        <v>4.1911312525839062</v>
-      </c>
-      <c r="P3">
-        <v>-15.302975069200972</v>
-      </c>
-      <c r="Q3">
-        <v>0.55512568354648906</v>
-      </c>
-      <c r="R3">
-        <v>5.8905749215090975</v>
-      </c>
-      <c r="S3">
-        <v>7.6910534484964472</v>
-      </c>
-      <c r="T3">
-        <v>6.0085053390217729</v>
-      </c>
-      <c r="U3">
-        <v>-1.9597309938800096</v>
-      </c>
-      <c r="V3">
-        <v>-4.1064003114984642</v>
-      </c>
-      <c r="W3">
-        <v>0.22258251235820012</v>
-      </c>
-      <c r="X3">
-        <v>9.3113956163635301</v>
-      </c>
-      <c r="Y3">
-        <v>5.2435906091060938</v>
-      </c>
-      <c r="Z3">
-        <v>-2.9038017042924031</v>
-      </c>
-      <c r="AA3">
-        <v>-1.2121349949461249</v>
-      </c>
-      <c r="AB3">
-        <v>2.3307561108478114</v>
-      </c>
-      <c r="AC3">
-        <v>-0.76864007998921391</v>
-      </c>
-      <c r="AD3">
-        <v>-2.1103024338684282</v>
-      </c>
-      <c r="AE3">
-        <v>-4.0874565741524549</v>
-      </c>
-      <c r="AF3">
-        <v>-0.19538672800968973</v>
-      </c>
-      <c r="AG3">
-        <v>0.25222231800195954</v>
-      </c>
-      <c r="AH3">
-        <v>-1.2035944878607552</v>
-      </c>
-      <c r="AI3">
-        <v>-3.5465734721099276E-2</v>
-      </c>
-      <c r="AJ3">
-        <v>-3.3529182403989055</v>
-      </c>
-      <c r="AK3">
-        <v>1.4313628270470828</v>
-      </c>
-      <c r="AL3">
-        <v>-4.3635932422254342</v>
-      </c>
-      <c r="AM3">
-        <v>-5.7557048376443198</v>
-      </c>
-      <c r="AN3">
-        <v>5.3759646228095832</v>
-      </c>
       <c r="AO3">
-        <v>9.606349951332497</v>
+        <v>9.6063499645411685</v>
       </c>
       <c r="AP3">
-        <v>-4.8389341899681195</v>
+        <v>-4.8389341766408354</v>
       </c>
       <c r="AQ3">
-        <v>-1.9344935983748333</v>
+        <v>-1.9344935784110526</v>
       </c>
       <c r="AR3">
-        <v>9.2132891409179019E-2</v>
+        <v>9.2132903017516032E-2</v>
       </c>
       <c r="AS3">
-        <v>3.87541059646321</v>
+        <v>3.8754106111991762</v>
       </c>
       <c r="AT3">
-        <v>-0.49004761843438666</v>
+        <v>-0.49004759990416413</v>
       </c>
       <c r="AU3">
-        <v>-3.054014005555663</v>
+        <v>-3.054013997495534</v>
       </c>
       <c r="AV3">
-        <v>-2.5705681076023059</v>
+        <v>-2.5705680939678062</v>
       </c>
       <c r="AW3">
-        <v>-2.3250565215179755</v>
+        <v>-2.3250565073161531</v>
       </c>
       <c r="AX3">
-        <v>-17.862299017583748</v>
+        <v>-17.862299004045394</v>
       </c>
       <c r="AY3">
-        <v>-9.7776956869774185</v>
+        <v>-9.7776956702981028</v>
       </c>
     </row>
   </sheetData>
